--- a/자유수강권자 환불/배드민턴1(강사).xlsx
+++ b/자유수강권자 환불/배드민턴1(강사).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="86">
   <si>
     <t>주야</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>이호령</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t>조휘</t>
@@ -645,7 +642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -963,11 +962,11 @@
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -981,16 +980,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1004,16 +1003,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -1027,16 +1026,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
@@ -1050,16 +1049,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1073,16 +1072,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1096,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
@@ -1105,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1119,16 +1118,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -1142,16 +1141,16 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
@@ -1165,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -1174,7 +1173,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -1188,16 +1187,16 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -1211,16 +1210,16 @@
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>12</v>
@@ -1234,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -1243,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>12</v>
@@ -1257,16 +1256,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
@@ -1280,16 +1279,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>12</v>
@@ -1303,16 +1302,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
@@ -1326,7 +1325,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>18</v>
@@ -1335,7 +1334,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>12</v>
@@ -1349,16 +1348,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>12</v>
@@ -1372,16 +1371,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
@@ -1395,16 +1394,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
@@ -1418,16 +1417,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>12</v>
@@ -1441,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>13</v>
@@ -1450,7 +1449,7 @@
         <v>28</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>12</v>
@@ -1464,16 +1463,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>12</v>
@@ -1487,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -1496,7 +1495,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>12</v>
@@ -1510,16 +1509,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
@@ -1533,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>9</v>
@@ -1542,7 +1541,7 @@
         <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
@@ -1556,16 +1555,16 @@
         <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
@@ -1579,16 +1578,16 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
@@ -1602,16 +1601,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>12</v>
@@ -1625,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>18</v>
@@ -1634,7 +1633,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>12</v>
@@ -1648,16 +1647,16 @@
         <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>12</v>
@@ -1671,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>18</v>
@@ -1680,7 +1679,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>12</v>
@@ -1694,16 +1693,16 @@
         <v>7</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>12</v>
